--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF1CA0-0061-475E-9434-D673EB3F9910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481F489-B9B2-4E9D-B741-F47007495082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -145,359 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -534,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -574,7 +222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -680,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -822,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,8 +481,8 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>7.0974754609387704E+62</v>
+        <v>1E+40</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -933,7 +581,7 @@
       </c>
       <c r="F3" s="2">
         <f>F2*4</f>
-        <v>2.8389901843755082E+63</v>
+        <v>4.0000000000000001E+40</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -966,7 +614,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F41" si="0">F3*4</f>
-        <v>1.1355960737502033E+64</v>
+        <v>1.6E+41</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1000,7 +648,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.5423842950008131E+64</v>
+        <v>6.4000000000000002E+41</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -1034,7 +682,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8169537180003252E+65</v>
+        <v>2.5600000000000001E+42</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -1067,7 +715,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7.2678148720013009E+65</v>
+        <v>1.024E+43</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -1101,7 +749,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.9071259488005204E+66</v>
+        <v>4.0960000000000001E+43</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1135,7 +783,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>1.1628503795202081E+67</v>
+        <v>1.6384E+44</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -1168,7 +816,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>4.6514015180808326E+67</v>
+        <v>6.5536000000000002E+44</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -1202,7 +850,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>1.860560607232333E+68</v>
+        <v>2.6214400000000001E+45</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -1236,7 +884,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>7.4422424289293321E+68</v>
+        <v>1.048576E+46</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -1269,7 +917,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>2.9768969715717328E+69</v>
+        <v>4.1943040000000001E+46</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -1303,7 +951,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>1.1907587886286931E+70</v>
+        <v>1.6777216000000001E+47</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -1337,7 +985,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>4.7630351545147726E+70</v>
+        <v>6.7108864000000002E+47</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -1370,7 +1018,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>1.905214061805909E+71</v>
+        <v>2.6843545600000001E+48</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1404,7 +1052,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>7.6208562472236361E+71</v>
+        <v>1.073741824E+49</v>
       </c>
       <c r="G17">
         <v>1000</v>
@@ -1438,7 +1086,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>3.0483424988894544E+72</v>
+        <v>4.2949672960000001E+49</v>
       </c>
       <c r="G18">
         <v>1000</v>
@@ -1471,7 +1119,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>1.2193369995557818E+73</v>
+        <v>1.7179869184000001E+50</v>
       </c>
       <c r="G19">
         <v>1000</v>
@@ -1505,7 +1153,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>4.8773479982231271E+73</v>
+        <v>6.8719476736000002E+50</v>
       </c>
       <c r="G20">
         <v>1000</v>
@@ -1539,7 +1187,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>1.9509391992892508E+74</v>
+        <v>2.7487790694400001E+51</v>
       </c>
       <c r="G21">
         <v>1000</v>
@@ -1572,7 +1220,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>7.8037567971570034E+74</v>
+        <v>1.099511627776E+52</v>
       </c>
       <c r="G22">
         <v>1000</v>
@@ -1606,7 +1254,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>3.1215027188628013E+75</v>
+        <v>4.3980465111040001E+52</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -1640,7 +1288,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>1.2486010875451205E+76</v>
+        <v>1.7592186044416001E+53</v>
       </c>
       <c r="G24">
         <v>1000</v>
@@ -1673,7 +1321,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>4.9944043501804821E+76</v>
+        <v>7.0368744177664002E+53</v>
       </c>
       <c r="G25">
         <v>1000</v>
@@ -1707,7 +1355,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>1.9977617400721929E+77</v>
+        <v>2.8147497671065601E+54</v>
       </c>
       <c r="G26">
         <v>1000</v>
@@ -1741,7 +1389,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>7.9910469602887714E+77</v>
+        <v>1.125899906842624E+55</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -1774,7 +1422,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>3.1964187841155086E+78</v>
+        <v>4.5035996273704961E+55</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -1808,7 +1456,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>1.2785675136462034E+79</v>
+        <v>1.8014398509481985E+56</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1842,7 +1490,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>5.1142700545848137E+79</v>
+        <v>7.2057594037927938E+56</v>
       </c>
       <c r="G30">
         <v>1000</v>
@@ -1875,7 +1523,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>2.0457080218339255E+80</v>
+        <v>2.8823037615171175E+57</v>
       </c>
       <c r="G31">
         <v>1000</v>
@@ -1901,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D41" si="1">QUOTIENT(A32,3)*500 + 1000</f>
+        <f t="shared" ref="D32:D33" si="1">QUOTIENT(A32,3)*500 + 1000</f>
         <v>6000</v>
       </c>
       <c r="E32">
@@ -1909,7 +1557,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>8.182832087335702E+80</v>
+        <v>1.152921504606847E+58</v>
       </c>
       <c r="G32">
         <v>1000</v>
@@ -1943,7 +1591,7 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>3.2731328349342808E+81</v>
+        <v>4.611686018427388E+58</v>
       </c>
       <c r="G33">
         <v>1000</v>
@@ -1976,7 +1624,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>1.3092531339737123E+82</v>
+        <v>1.8446744073709552E+59</v>
       </c>
       <c r="G34">
         <v>1000</v>
@@ -2002,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D41" si="2">QUOTIENT(A35,3)*500 + 1000</f>
+        <f t="shared" ref="D35:D36" si="2">QUOTIENT(A35,3)*500 + 1000</f>
         <v>6500</v>
       </c>
       <c r="E35">
@@ -2010,7 +1658,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>5.2370125358948492E+82</v>
+        <v>7.3786976294838209E+59</v>
       </c>
       <c r="G35">
         <v>1000</v>
@@ -2044,7 +1692,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>2.0948050143579397E+83</v>
+        <v>2.9514790517935283E+60</v>
       </c>
       <c r="G36">
         <v>1000</v>
@@ -2077,7 +1725,7 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>8.3792200574317588E+83</v>
+        <v>1.1805916207174113E+61</v>
       </c>
       <c r="G37">
         <v>1000</v>
@@ -2103,7 +1751,7 @@
         <v>73</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D41" si="3">QUOTIENT(A38,3)*500 + 1000</f>
+        <f t="shared" ref="D38:D39" si="3">QUOTIENT(A38,3)*500 + 1000</f>
         <v>7000</v>
       </c>
       <c r="E38">
@@ -2111,7 +1759,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>3.3516880229727035E+84</v>
+        <v>4.7223664828696454E+61</v>
       </c>
       <c r="G38">
         <v>1000</v>
@@ -2145,7 +1793,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>1.3406752091890814E+85</v>
+        <v>1.8889465931478581E+62</v>
       </c>
       <c r="G39">
         <v>1000</v>
@@ -2178,7 +1826,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>5.3627008367563256E+85</v>
+        <v>7.5557863725914326E+62</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -2212,7 +1860,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>2.1450803347025303E+86</v>
+        <v>3.022314549036573E+63</v>
       </c>
       <c r="G41">
         <v>1000</v>
@@ -2229,89 +1877,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A3:E7 C8:E19 A8:A41 C20:C41 E20:E41 F3:J41">
-    <cfRule type="expression" dxfId="16" priority="50">
+  <conditionalFormatting sqref="A2:J41">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="15" priority="26">
-      <formula>$C8=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>$C13=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>$C16=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="12" priority="19">
-      <formula>$C19=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="11" priority="18">
-      <formula>$C20=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>$C22=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>$C23=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$C25=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27 B32:B33 B38:B39">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$C26=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28 B34 B40">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>$C28=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30 B35:B36 B41">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>$C29=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31 B37">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>$C31=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C20=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C23=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28 D32:D34 D38:D40">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C26=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31 D35:D37 D41">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C29=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
